--- a/단어 샘플.xlsx
+++ b/단어 샘플.xlsx
@@ -21,6 +21,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <x:si>
+    <x:t>num</x:t>
+  </x:si>
+  <x:si>
     <x:t>Children need plenty of good fresh food to nourish them.</x:t>
   </x:si>
   <x:si>
@@ -33,18 +36,12 @@
     <x:t>Two children drawned after falling into the river.</x:t>
   </x:si>
   <x:si>
-    <x:t>Word</x:t>
-  </x:si>
-  <x:si>
     <x:t>사전에, 미리</x:t>
   </x:si>
   <x:si>
     <x:t>게시, 고지</x:t>
   </x:si>
   <x:si>
-    <x:t>Number</x:t>
-  </x:si>
-  <x:si>
     <x:t>afresh</x:t>
   </x:si>
   <x:si>
@@ -60,9 +57,6 @@
     <x:t>grief</x:t>
   </x:si>
   <x:si>
-    <x:t>Meaning</x:t>
-  </x:si>
-  <x:si>
     <x:t>핵심, 중심</x:t>
   </x:si>
   <x:si>
@@ -72,15 +66,21 @@
     <x:t>drown</x:t>
   </x:si>
   <x:si>
-    <x:t>Example</x:t>
-  </x:si>
-  <x:si>
     <x:t>core</x:t>
   </x:si>
   <x:si>
     <x:t>besides</x:t>
   </x:si>
   <x:si>
+    <x:t>word</x:t>
+  </x:si>
+  <x:si>
+    <x:t>example</x:t>
+  </x:si>
+  <x:si>
+    <x:t>meaning</x:t>
+  </x:si>
+  <x:si>
     <x:t>그것은 새로 시작할 수 있는 기회였다.</x:t>
   </x:si>
   <x:si>
@@ -114,6 +114,9 @@
     <x:t>I don't really want to go. Besides, it' too late now.</x:t>
   </x:si>
   <x:si>
+    <x:t>interpretation</x:t>
+  </x:si>
+  <x:si>
     <x:t>꼭 가고 싶은 건 아냐. 게다가 이제 시간도 너무 늦었어.</x:t>
   </x:si>
   <x:si>
@@ -151,9 +154,6 @@
   </x:si>
   <x:si>
     <x:t>물고기가 미끼를 물었다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interpretation</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -948,33 +948,34 @@
   <x:dimension ref="A1:E11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="C11" activeCellId="0" sqref="C11:C11"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <x:col min="3" max="3" width="26.5" customWidth="1"/>
-    <x:col min="4" max="4" width="52.8984375" customWidth="1"/>
-    <x:col min="5" max="5" width="35.19921875" customWidth="1"/>
+    <x:col min="1" max="1" width="8.796875" customWidth="1"/>
+    <x:col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <x:col min="4" max="4" width="26.5" customWidth="1"/>
+    <x:col min="5" max="5" width="52.8984375" customWidth="1"/>
+    <x:col min="6" max="6" width="35.19921875" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>44</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -982,13 +983,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" t="s">
         <x:v>28</x:v>
@@ -999,7 +1000,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>6</x:v>
@@ -1016,16 +1017,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -1033,16 +1034,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D5" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -1050,13 +1051,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" t="s">
         <x:v>23</x:v>
@@ -1067,16 +1068,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -1084,13 +1085,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E8" t="s">
         <x:v>20</x:v>
@@ -1101,13 +1102,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E9" t="s">
         <x:v>25</x:v>
@@ -1118,10 +1119,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D10" t="s">
         <x:v>27</x:v>
@@ -1135,13 +1136,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" t="s">
         <x:v>21</x:v>
